--- a/datenRF4/SFU/i = 24,42 - Abtriebswelle 22 - Geber AV Y2/L1_24,42_22_AVY2.xlsx
+++ b/datenRF4/SFU/i = 24,42 - Abtriebswelle 22 - Geber AV Y2/L1_24,42_22_AVY2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 24^J42 - Abtriebswelle 22 - Geber AV Y2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{B5EC2E10-F954-446B-886F-D6C1C8FD6BCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A8DAA444-AC5C-4DFD-8D73-DFFCA3B40358}"/>
   <bookViews>
-    <workbookView xWindow="-2190" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2190" yWindow="3170" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -428,11 +422,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -666,9 +660,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -676,9 +667,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -712,6 +700,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -808,7 +805,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -985,83 +982,83 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48:G52"/>
+      <selection pane="bottomRight" activeCell="B63" activeCellId="18" sqref="B9 B13 B14 B18 B19 B20 B24 B25 B26 B30 B31 B32 B41 B51 B52 B57 B58 B64 B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="20.140625" customWidth="1"/>
+    <col min="1" max="4" width="20.1796875" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="63.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="15" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" customWidth="1"/>
+    <col min="12" max="12" width="63.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" customWidth="1"/>
+    <col min="14" max="15" width="18.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="15.81640625" customWidth="1"/>
+    <col min="19" max="19" width="23.7265625" customWidth="1"/>
+    <col min="20" max="20" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:20" ht="21">
+      <c r="A1" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="50" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="45" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="46"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="26"/>
       <c r="H2" s="5"/>
       <c r="I2" s="14"/>
@@ -1077,7 +1074,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
@@ -1139,7 +1136,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="58">
       <c r="A4" s="16"/>
       <c r="B4" s="30"/>
       <c r="F4" s="31"/>
@@ -1170,7 +1167,7 @@
       </c>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="16"/>
       <c r="G5" s="17"/>
       <c r="H5" s="16">
@@ -1195,7 +1192,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="16">
@@ -1220,7 +1217,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="17"/>
     </row>
-    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="58">
       <c r="A7" s="32">
         <v>1</v>
       </c>
@@ -1272,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1306,11 +1303,13 @@
       <c r="S8" s="1"/>
       <c r="T8" s="17"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="53">
+        <v>3</v>
+      </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
@@ -1340,10 +1339,10 @@
       <c r="S9" s="1"/>
       <c r="T9" s="17"/>
     </row>
-    <row r="10" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="44" thickBot="1">
       <c r="A10" s="16"/>
       <c r="B10" s="30"/>
-      <c r="E10" s="39"/>
+      <c r="E10" s="38"/>
       <c r="G10" s="17"/>
       <c r="H10" s="16">
         <v>3</v>
@@ -1367,7 +1366,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="17"/>
     </row>
-    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="58">
       <c r="A11" s="32">
         <v>1</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1453,18 +1452,20 @@
       <c r="S12" s="1"/>
       <c r="T12" s="17"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="54">
+        <v>3</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>67</v>
       </c>
       <c r="F13" t="s">
@@ -1487,11 +1488,13 @@
       <c r="S13" s="1"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="53">
+        <v>3</v>
+      </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
@@ -1521,7 +1524,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="29.5" thickBot="1">
       <c r="A15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="16">
@@ -1546,7 +1549,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="17"/>
     </row>
-    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="58">
       <c r="A16" s="32">
         <v>1</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -1632,18 +1635,20 @@
       <c r="S17" s="1"/>
       <c r="T17" s="17"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="54">
+        <v>3</v>
+      </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>67</v>
       </c>
       <c r="F18" t="s">
@@ -1666,9 +1671,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="16">
         <v>2</v>
+      </c>
+      <c r="B19" s="54">
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1699,11 +1707,13 @@
       <c r="S19" s="1"/>
       <c r="T19" s="17"/>
     </row>
-    <row r="20" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="29.5" thickBot="1">
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="53">
+        <v>3</v>
+      </c>
       <c r="C20" s="4">
         <v>8</v>
       </c>
@@ -1733,7 +1743,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="29.5" thickBot="1">
       <c r="A21" s="16"/>
       <c r="G21" s="17"/>
       <c r="H21" s="16">
@@ -1758,7 +1768,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="58">
       <c r="A22" s="32">
         <v>1</v>
       </c>
@@ -1810,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15" thickBot="1">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -1844,18 +1854,20 @@
       <c r="S23" s="1"/>
       <c r="T23" s="17"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="16">
         <v>1</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="54">
+        <v>3</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>67</v>
       </c>
       <c r="F24" t="s">
@@ -1878,9 +1890,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="17"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="16">
         <v>2</v>
+      </c>
+      <c r="B25" s="54">
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1911,11 +1926,13 @@
       <c r="S25" s="1"/>
       <c r="T25" s="17"/>
     </row>
-    <row r="26" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="29.5" thickBot="1">
       <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="53">
+        <v>3</v>
+      </c>
       <c r="C26" s="4">
         <v>8</v>
       </c>
@@ -1945,7 +1962,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="17"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="16"/>
       <c r="G27" s="17"/>
       <c r="H27" s="16">
@@ -1970,7 +1987,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="17"/>
     </row>
-    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="43.5">
       <c r="A28" s="32">
         <v>1</v>
       </c>
@@ -2024,7 +2041,7 @@
       </c>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="44" thickBot="1">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -2064,18 +2081,20 @@
       </c>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="16">
         <v>1</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="54">
+        <v>3</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="38" t="s">
         <v>67</v>
       </c>
       <c r="F30" t="s">
@@ -2098,9 +2117,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="16">
         <v>2</v>
+      </c>
+      <c r="B31" s="54">
+        <v>3</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2131,11 +2153,13 @@
       <c r="S31" s="1"/>
       <c r="T31" s="17"/>
     </row>
-    <row r="32" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="29.5" thickBot="1">
       <c r="A32" s="3">
         <v>3</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="53">
+        <v>3</v>
+      </c>
       <c r="C32" s="4">
         <v>8</v>
       </c>
@@ -2165,7 +2189,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="17"/>
     </row>
-    <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="43.5">
       <c r="A33" s="16"/>
       <c r="G33" s="17"/>
       <c r="H33" s="16">
@@ -2190,7 +2214,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="16"/>
       <c r="G34" s="17"/>
       <c r="H34" s="16">
@@ -2215,7 +2239,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="29">
       <c r="A35" s="16"/>
       <c r="G35" s="17"/>
       <c r="H35" s="16">
@@ -2240,7 +2264,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="17"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="16"/>
       <c r="G36" s="17"/>
       <c r="H36" s="16">
@@ -2265,7 +2289,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="17"/>
     </row>
-    <row r="37" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="44" thickBot="1">
       <c r="A37" s="16"/>
       <c r="B37" s="30"/>
       <c r="F37" s="31"/>
@@ -2292,7 +2316,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="17"/>
     </row>
-    <row r="38" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="58">
       <c r="A38" s="32">
         <v>1</v>
       </c>
@@ -2344,11 +2368,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="39">
         <v>2</v>
       </c>
       <c r="C39">
@@ -2378,11 +2402,11 @@
       <c r="S39" s="1"/>
       <c r="T39" s="17"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="15" thickBot="1">
       <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="39">
         <v>2</v>
       </c>
       <c r="C40">
@@ -2412,21 +2436,23 @@
       <c r="S40" s="1"/>
       <c r="T40" s="17"/>
     </row>
-    <row r="41" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43">
-        <v>1</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="44" t="s">
+    <row r="41" spans="1:20" ht="29.5" thickBot="1">
+      <c r="A41" s="40">
+        <v>1</v>
+      </c>
+      <c r="B41" s="55">
+        <v>3</v>
+      </c>
+      <c r="C41" s="41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="41" t="s">
         <v>91</v>
       </c>
       <c r="G41" s="29">
@@ -2446,7 +2472,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="17"/>
     </row>
-    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="43.5">
       <c r="A42" s="16"/>
       <c r="G42" s="17"/>
       <c r="H42" s="16">
@@ -2471,7 +2497,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="17"/>
     </row>
-    <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="43.5">
       <c r="A43" s="16"/>
       <c r="G43" s="17"/>
       <c r="H43" s="16">
@@ -2496,7 +2522,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="17"/>
     </row>
-    <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="43.5">
       <c r="A44" s="16"/>
       <c r="G44" s="17"/>
       <c r="H44" s="16">
@@ -2521,7 +2547,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="17"/>
     </row>
-    <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="43.5">
       <c r="A45" s="16"/>
       <c r="G45" s="17"/>
       <c r="H45" s="16">
@@ -2546,7 +2572,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="17"/>
     </row>
-    <row r="46" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="43.5">
       <c r="A46" s="16"/>
       <c r="G46" s="17"/>
       <c r="H46" s="16">
@@ -2571,7 +2597,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="17"/>
     </row>
-    <row r="47" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="44" thickBot="1">
       <c r="H47" s="16">
         <v>16</v>
       </c>
@@ -2594,7 +2620,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="17"/>
     </row>
-    <row r="48" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="58">
       <c r="A48" s="32">
         <v>1</v>
       </c>
@@ -2646,11 +2672,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="16">
         <v>2</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="39">
         <v>2</v>
       </c>
       <c r="C49">
@@ -2680,7 +2706,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="17"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15" thickBot="1">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -2714,18 +2740,20 @@
       <c r="S50" s="1"/>
       <c r="T50" s="17"/>
     </row>
-    <row r="51" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="29">
       <c r="A51" s="16">
         <v>1</v>
       </c>
-      <c r="B51" s="30"/>
+      <c r="B51" s="54">
+        <v>3</v>
+      </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="38" t="s">
         <v>90</v>
       </c>
       <c r="F51" t="s">
@@ -2748,11 +2776,13 @@
       <c r="S51" s="1"/>
       <c r="T51" s="17"/>
     </row>
-    <row r="52" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="29.5" thickBot="1">
       <c r="A52" s="3">
         <v>2</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="53">
+        <v>3</v>
+      </c>
       <c r="C52" s="4">
         <v>2</v>
       </c>
@@ -2782,7 +2812,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="17"/>
     </row>
-    <row r="53" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="29.5" thickBot="1">
       <c r="A53" s="16"/>
       <c r="G53" s="17"/>
       <c r="H53" s="16">
@@ -2807,7 +2837,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="17"/>
     </row>
-    <row r="54" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="58">
       <c r="A54" s="32">
         <v>1</v>
       </c>
@@ -2859,11 +2889,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="16">
         <v>2</v>
       </c>
-      <c r="B55" s="40">
+      <c r="B55" s="39">
         <v>2</v>
       </c>
       <c r="C55">
@@ -2893,7 +2923,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="17"/>
     </row>
-    <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="15" thickBot="1">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -2927,18 +2957,20 @@
       <c r="S56" s="1"/>
       <c r="T56" s="17"/>
     </row>
-    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="29">
       <c r="A57" s="16">
         <v>1</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="54">
+        <v>3</v>
+      </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="38" t="s">
         <v>90</v>
       </c>
       <c r="F57" t="s">
@@ -2961,11 +2993,13 @@
       <c r="S57" s="1"/>
       <c r="T57" s="17"/>
     </row>
-    <row r="58" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="29.5" thickBot="1">
       <c r="A58" s="3">
         <v>2</v>
       </c>
-      <c r="B58" s="36"/>
+      <c r="B58" s="53">
+        <v>3</v>
+      </c>
       <c r="C58" s="4">
         <v>2</v>
       </c>
@@ -2995,7 +3029,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="17"/>
     </row>
-    <row r="59" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="44" thickBot="1">
       <c r="A59" s="16"/>
       <c r="G59" s="17"/>
       <c r="H59" s="16">
@@ -3020,7 +3054,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="17"/>
     </row>
-    <row r="60" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="58">
       <c r="A60" s="32">
         <v>1</v>
       </c>
@@ -3072,11 +3106,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="16">
         <v>2</v>
       </c>
-      <c r="B61" s="40">
+      <c r="B61" s="39">
         <v>2</v>
       </c>
       <c r="C61">
@@ -3106,7 +3140,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="17"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15" thickBot="1">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -3137,18 +3171,20 @@
       <c r="S62" s="1"/>
       <c r="T62" s="17"/>
     </row>
-    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="29">
       <c r="A63" s="16">
         <v>1</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="54">
+        <v>3</v>
+      </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="38" t="s">
         <v>90</v>
       </c>
       <c r="F63" t="s">
@@ -3168,11 +3204,13 @@
       <c r="S63" s="1"/>
       <c r="T63" s="17"/>
     </row>
-    <row r="64" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="29.5" thickBot="1">
       <c r="A64" s="3">
         <v>2</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="53">
+        <v>3</v>
+      </c>
       <c r="C64" s="4">
         <v>2</v>
       </c>
@@ -3199,10 +3237,10 @@
       <c r="S64" s="1"/>
       <c r="T64" s="17"/>
     </row>
-    <row r="65" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="43.5">
       <c r="A65" s="16"/>
-      <c r="B65" s="40"/>
-      <c r="E65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="E65" s="38"/>
       <c r="G65" s="17"/>
       <c r="H65" s="16">
         <v>20</v>
@@ -3223,7 +3261,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="17"/>
     </row>
-    <row r="66" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="73" thickBot="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
